--- a/data/case1/18/P_device_14.xlsx
+++ b/data/case1/18/P_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.018156487501559133</v>
+        <v>0.011981575276348506</v>
       </c>
       <c r="B1" s="0">
-        <v>0.018156487246198817</v>
+        <v>-0.011981575492741082</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.018713977384081992</v>
+        <v>-0.004605373470799856</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.018713977635033997</v>
+        <v>0.0046053732644158133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.050105718321045781</v>
+        <v>-0.048578451836731297</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.050105718573591092</v>
+        <v>0.048578451626168667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.016792168472038259</v>
+        <v>0.039086555815156576</v>
       </c>
       <c r="B4" s="0">
-        <v>0.01679216820897611</v>
+        <v>-0.039086556022066621</v>
       </c>
     </row>
   </sheetData>
